--- a/experimental-validation/experiment-2-software-participants/Results.xlsx
+++ b/experimental-validation/experiment-2-software-participants/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ivan\Doctorado\2022-10\Validación DSL\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B339B0-7C9C-495A-A8E5-CBD0B5ED02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE74543-E2A2-4207-8A81-19B6954DA6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BB069F72-8489-4F24-A222-1208B1A030D0}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Q1" sheetId="4" r:id="rId2"/>
     <sheet name="Q2" sheetId="5" r:id="rId3"/>
     <sheet name="Errors" sheetId="1" r:id="rId4"/>
+    <sheet name="Graphs" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
   <si>
     <t>User</t>
   </si>
@@ -97,21 +98,6 @@
   </si>
   <si>
     <t>Time E2</t>
-  </si>
-  <si>
-    <t>Aurelio</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Marc</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Edouard</t>
   </si>
   <si>
     <t>Postdoc</t>
@@ -284,6 +270,12 @@
   </si>
   <si>
     <t>Rule actions</t>
+  </si>
+  <si>
+    <t>Nodes (edge, fog, and cloud)</t>
+  </si>
+  <si>
+    <t>Applications and containers</t>
   </si>
 </sst>
 </file>
@@ -430,7 +422,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Errors!$C$11:$C$15</c:f>
+              <c:f>Graphs!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -453,7 +445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Errors!$D$11:$D$15</c:f>
+              <c:f>Graphs!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -477,7 +469,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E75-4ABE-85D3-19238E200A72}"/>
+              <c16:uniqueId val="{00000000-D7E8-4A11-97A2-E2AE3D1DDC97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -499,7 +491,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Errors!$C$11:$C$15</c:f>
+              <c:f>Graphs!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -522,7 +514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Errors!$E$11:$E$15</c:f>
+              <c:f>Graphs!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -546,7 +538,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E75-4ABE-85D3-19238E200A72}"/>
+              <c16:uniqueId val="{00000001-D7E8-4A11-97A2-E2AE3D1DDC97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -754,7 +746,756 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1111111111111109E-2"/>
+          <c:y val="5.5555555555555552E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.79224482356372117"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nodes (edge, fog, and cloud)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35555555555555557"/>
+                  <c:y val="-0.10185185185185194"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19166666666666668"/>
+                  <c:y val="-4.6296296296297144E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$B$22:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$22:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A28-45C0-8D77-EA04FBDD63C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Applications and containers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22222222222222213"/>
+                  <c:y val="-0.10185185185185194"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20555555555555555"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$B$22:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A28-45C0-8D77-EA04FBDD63C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adaptation rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21666666666666667"/>
+                  <c:y val="-4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.39444444444444443"/>
+                  <c:y val="4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21666666666666667"/>
+                  <c:y val="-4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3A28-45C0-8D77-EA04FBDD63C1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$B$22:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Very easy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Easy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$E$22:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A28-45C0-8D77-EA04FBDD63C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="289776751"/>
+        <c:axId val="289779247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289776751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="289779247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289779247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="289776751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1299,27 +2040,570 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB48D0B-EB6F-17AA-37AF-BEB042F54CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7612427-4D09-4BBE-9853-52D86BB8FA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA7B853-0B5A-6735-E1FB-CF981A8EF942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +2615,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1640,7 +2924,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,28 +2941,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1686,25 +2970,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1712,25 +2996,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1738,25 +3022,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1764,25 +3048,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1790,25 +3074,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56A1935-03E0-4699-8EE2-EAF85EAAAEE1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1840,31 +3124,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,28 +3156,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1901,28 +3185,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
@@ -1930,28 +3214,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1959,28 +3243,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1988,28 +3272,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2036,22 +3320,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2059,19 +3343,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -2079,19 +3363,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -2099,19 +3383,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -2119,19 +3403,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -2139,19 +3423,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98AFECD-8100-4901-97A2-89D072F6CE23}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,8 +3509,8 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -2260,8 +3544,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -2295,8 +3579,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -2330,8 +3614,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2365,8 +3649,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -2401,7 +3685,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
@@ -2442,63 +3726,6 @@
       <c r="K8">
         <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="8">
-        <f>24/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="E14" s="8">
-        <f>1/25</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +3740,166 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FC20F4-76AA-4228-AEDE-BC613A2286DB}">
+  <dimension ref="B3:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8">
+        <f>24/25</f>
+        <v>0.96</v>
+      </c>
+      <c r="D6" s="8">
+        <f>1/25</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>